--- a/Lab Data.xlsx
+++ b/Lab Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Error Rate" sheetId="1" r:id="rId1"/>
@@ -135,8 +135,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -162,9 +168,15 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1787,6 +1799,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2294,6 +2338,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4937,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B42"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6521,8 +6597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Lab Data.xlsx
+++ b/Lab Data.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Error Rate" sheetId="1" r:id="rId1"/>
     <sheet name="Data Unit Size" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -228,7 +228,7 @@
                 <a:ea typeface="Verdana" charset="0"/>
                 <a:cs typeface="Verdana" charset="0"/>
               </a:rPr>
-              <a:t>Average Data Rate vs Error Probability</a:t>
+              <a:t>Average Data Rate (Kbps) vs Error Probability</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -405,11 +405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1246894208"/>
-        <c:axId val="-1270027616"/>
+        <c:axId val="-438268416"/>
+        <c:axId val="-480838192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1246894208"/>
+        <c:axId val="-438268416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -513,13 +513,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1270027616"/>
+        <c:crossAx val="-480838192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1270027616"/>
+        <c:axId val="-480838192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1246894208"/>
+        <c:crossAx val="-438268416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000.0"/>
@@ -876,7 +876,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
             <c:forward val="0.1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
@@ -969,11 +970,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1271069232"/>
-        <c:axId val="-1163526416"/>
+        <c:axId val="-438226880"/>
+        <c:axId val="-438223488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1271069232"/>
+        <c:axId val="-438226880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1091,12 +1092,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1163526416"/>
+        <c:crossAx val="-438223488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1163526416"/>
+        <c:axId val="-438223488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1271069232"/>
+        <c:crossAx val="-438226880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1327,6 +1328,528 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana" charset="0"/>
+                <a:ea typeface="Verdana" charset="0"/>
+                <a:cs typeface="Verdana" charset="0"/>
+              </a:rPr>
+              <a:t>Average Data Rate (Kbps) vs Error Probability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error Rate'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Data Rate (Kb/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error Rate'!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error Rate'!$B$33:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9462.268129868287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9718.52870780451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7773.704351068579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6894.499302964226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6698.897735128633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4728.338042345329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4728.338042345329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3324.724844889041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2196.896121571002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1031.027637046276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-547206176"/>
+        <c:axId val="-547284960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-547206176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" charset="0"/>
+                    <a:ea typeface="Verdana" charset="0"/>
+                    <a:cs typeface="Verdana" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Verdana" charset="0"/>
+                    <a:ea typeface="Verdana" charset="0"/>
+                    <a:cs typeface="Verdana" charset="0"/>
+                  </a:rPr>
+                  <a:t>Error Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Verdana" charset="0"/>
+                  <a:ea typeface="Verdana" charset="0"/>
+                  <a:cs typeface="Verdana" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-547284960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-547284960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" charset="0"/>
+                    <a:ea typeface="Verdana" charset="0"/>
+                    <a:cs typeface="Verdana" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:latin typeface="Verdana" charset="0"/>
+                    <a:ea typeface="Verdana" charset="0"/>
+                    <a:cs typeface="Verdana" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average Data Rate (Kb/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Verdana" charset="0"/>
+                  <a:ea typeface="Verdana" charset="0"/>
+                  <a:cs typeface="Verdana" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-547206176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-SG"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="002060"/>
@@ -1522,11 +2045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1242448976"/>
-        <c:axId val="-1269736400"/>
+        <c:axId val="-508771072"/>
+        <c:axId val="-508768880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1242448976"/>
+        <c:axId val="-508771072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000.0"/>
@@ -1651,13 +2174,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1269736400"/>
+        <c:crossAx val="-508768880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1269736400"/>
+        <c:axId val="-508768880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,7 +2309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1242448976"/>
+        <c:crossAx val="-508771072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10000.0"/>
@@ -1868,7 +2391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-SG"/>
@@ -2083,11 +2606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1246566832"/>
-        <c:axId val="-1270953424"/>
+        <c:axId val="-418632592"/>
+        <c:axId val="-418958624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1246566832"/>
+        <c:axId val="-418632592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,6 +2690,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2203,13 +2727,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1270953424"/>
+        <c:crossAx val="-418958624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1270953424"/>
+        <c:axId val="-418958624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +2849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1246566832"/>
+        <c:crossAx val="-418632592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -2567,6 +3091,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3587,7 +4151,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3614,8 +4178,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3716,7 +4280,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3748,6 +4312,509 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4102,7 +5169,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4675,6 +5742,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5013,8 +6112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E42"/>
+    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6597,7 +7696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="D33" sqref="D33:E43"/>
     </sheetView>
   </sheetViews>
